--- a/test/perl_output/merge4.xlsx
+++ b/test/perl_output/merge4.xlsx
@@ -84,10 +84,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -406,42 +415,42 @@
     </row>
     <row r="4" ht="30" customHeight="1"/>
     <row r="5" spans="2:4" ht="30" customHeight="1">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="2:4" ht="30" customHeight="1">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" ht="30" customHeight="1"/>
     <row r="8" spans="2:4" ht="30" customHeight="1">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="2:4" ht="30" customHeight="1">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" ht="30" customHeight="1"/>
     <row r="11" spans="2:4" ht="30" customHeight="1">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="2:4" ht="30" customHeight="1">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/test/perl_output/merge4.xlsx
+++ b/test/perl_output/merge4.xlsx
@@ -413,7 +413,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" ht="30" customHeight="1"/>
+    <row r="4" spans="2:4" ht="30" customHeight="1"/>
     <row r="5" spans="2:4" ht="30" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>1</v>
@@ -426,7 +426,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" ht="30" customHeight="1"/>
+    <row r="7" spans="2:4" ht="30" customHeight="1"/>
     <row r="8" spans="2:4" ht="30" customHeight="1">
       <c r="B8" s="3" t="s">
         <v>2</v>
@@ -439,7 +439,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" ht="30" customHeight="1"/>
+    <row r="10" spans="2:4" ht="30" customHeight="1"/>
     <row r="11" spans="2:4" ht="30" customHeight="1">
       <c r="B11" s="4" t="s">
         <v>3</v>
